--- a/data/trans_dic/P24_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de estómago con bastante o mucha frecuencia</t>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,21</t>
+          <t>1,96; 11,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 19,12</t>
+          <t>2,5; 12,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 16,68</t>
+          <t>8,05; 17,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,64</t>
+          <t>6,88; 14,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 16,12</t>
+          <t>6,02; 19,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 20,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 21,45</t>
+          <t>8,82; 22,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,47</t>
+          <t>10,0; 22,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,64</t>
+          <t>14,0; 23,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,88</t>
+          <t>12,04; 19,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,88</t>
+          <t>17,88; 36,01</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 17,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,83</t>
+          <t>6,67; 15,55</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 16,13</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 19,19</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 15,99</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 27,4</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,17 +959,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -870,57 +979,87 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,44</t>
+          <t>3,28; 12,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,66</t>
+          <t>5,68; 18,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,69</t>
+          <t>5,99; 11,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,6</t>
+          <t>5,89; 11,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,49</t>
+          <t>9,37; 23,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 13,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 16,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 16,45</t>
+          <t>6,77; 13,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,75</t>
+          <t>10,15; 17,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 23,44</t>
+          <t>11,53; 17,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 9,8</t>
+          <t>12,11; 17,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,38</t>
+          <t>14,78; 22,91</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,81</t>
+          <t>5,47; 10,89</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 15,58</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 13,38</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 13,27</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 20,79</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,89</t>
+          <t>4,09; 11,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,1</t>
+          <t>4,18; 10,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,65</t>
+          <t>5,26; 10,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,43</t>
+          <t>3,09; 7,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,28</t>
+          <t>4,53; 10,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,69</t>
+          <t>4,49; 10,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 16,21</t>
+          <t>7,09; 14,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,81</t>
+          <t>9,99; 16,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,59</t>
+          <t>10,11; 15,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,86</t>
+          <t>11,9; 20,48</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 17,36</t>
+          <t>5,0; 10,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 11,12</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 12,81</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 11,06</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 14,58</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,43</t>
+          <t>3,2; 6,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,5</t>
+          <t>5,39; 12,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,17</t>
+          <t>4,59; 10,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 13,47</t>
+          <t>4,52; 10,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 15,96</t>
+          <t>9,23; 13,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 16,15</t>
+          <t>8,91; 15,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 21,36</t>
+          <t>9,86; 17,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 11,63</t>
+          <t>15,48; 24,22</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 12,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 12,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 16,84</t>
+          <t>6,54; 9,17</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 12,3</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 12,71</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 16,27</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 6,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 10,26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 9,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 9,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 12,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 12,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 13,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 16,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 16,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 22,02</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 8,77</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 11,59</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 12,73</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 12,39</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 16,67</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11891</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19933</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>76477</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50528</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39391</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65393</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>118328</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>139370</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>161204</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>51282</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>85327</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>182084</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>215847</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>211732</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4441; 26163</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8473; 41718</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42492; 93500</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>50137; 108179</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26578; 85599</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23084; 59765</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42156; 96299</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88982; 150443</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>107696; 172437</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>114423; 230461</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>32543; 75921</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>56918; 122752</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>143213; 223278</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>169709; 259442</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>158158; 296376</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37688</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83346</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98690</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>127885</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>144567</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>66728</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>131832</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>175608</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>221553</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>202653</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>104415</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>215177</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>274298</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>349438</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>347220</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21334; 78586</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52972; 170664</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>72136; 133558</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>95518; 191591</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100051; 249089</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48411; 93501</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>101453; 174932</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>141399; 212485</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>182327; 267983</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>160086; 248252</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>74689; 148728</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>171589; 300995</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>236567; 325247</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>295450; 415041</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>285334; 447174</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31680</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47716</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63996</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55092</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59352</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38284</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>76352</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>119395</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>150078</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>140089</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>69964</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>124067</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>183391</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>205170</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>199441</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18627; 52788</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29923; 73575</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>44520; 92374</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33666; 85683</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37612; 87410</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23847; 57544</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54507; 107951</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93891; 152435</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>117608; 183708</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>106718; 183726</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>49360; 99883</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>93946; 165157</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>147702; 228635</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>165123; 249320</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>156755; 251983</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93940</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>115722</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60345</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78382</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>234281</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>160550</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>101238</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>194053</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>328221</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>276272</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>161583</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>272436</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>67687; 128918</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78450; 186206</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>39096; 91507</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49464; 116237</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192966; 282708</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>124764; 210670</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74986; 130851</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>152419; 238451</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>274829; 385450</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>218154; 351287</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>125042; 204920</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>225211; 338144</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>175199</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>266717</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>286787</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>259454</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>332829</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>378684</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>434127</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>514569</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>511001</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>698000</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>553883</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>700843</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>801357</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>770455</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1030829</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>134286; 227264</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>204490; 353163</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>238772; 340826</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>206205; 331555</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>273692; 441854</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>325944; 433033</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>374980; 500745</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>452454; 579574</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>451303; 571678</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>617083; 793821</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>485315; 617780</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>617885; 815108</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>724031; 890011</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>691165; 867797</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>916212; 1173386</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
